--- a/biology/Zoologie/Asura_(papillon)/Asura_(papillon).xlsx
+++ b/biology/Zoologie/Asura_(papillon)/Asura_(papillon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asura est un genre de lépidoptères (papillons) de la famille des Erebidae et de la sous-famille des Arctiinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Asura albidorsalis Wileman, 1914
@@ -602,7 +616,7 @@
 Asura latimargo Roepke, 1946
 Asura likiangensis Daniel, 1952
 Asura liparidia Rothschild, 1913
-Asura lutara (Moore, [1860])
+Asura lutara (Moore, )
 Asura lutarella Kalis, 1934
 Asura lutea Bethune-Baker, 1908
 Asura luzonica Wileman &amp; South, 1919
@@ -702,7 +716,7 @@
 Asura unipuncta (Leech, 1890)
 Asura varians (Hampson, 1893)
 Asura versicolor Kühne, 2007
-Asura vivida (Walker, [1865])
+Asura vivida (Walker, )
 Asura wandammensis Joicey &amp; Talbot, 1916
 Asura xanthophaea Toulgoët, 1977
 Asura zebrina (Hampson, 1914)
